--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H2">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N2">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O2">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P2">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q2">
-        <v>86.87747836517333</v>
+        <v>73.00134774421633</v>
       </c>
       <c r="R2">
-        <v>781.89730528656</v>
+        <v>657.0121296979471</v>
       </c>
       <c r="S2">
-        <v>0.1304652486727239</v>
+        <v>0.1205221107130066</v>
       </c>
       <c r="T2">
-        <v>0.1304652486727239</v>
+        <v>0.1205221107130066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H3">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.288553</v>
       </c>
       <c r="O3">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P3">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q3">
-        <v>35.24803385517333</v>
+        <v>56.03748758688545</v>
       </c>
       <c r="R3">
-        <v>317.23230469656</v>
+        <v>504.3373882819691</v>
       </c>
       <c r="S3">
-        <v>0.05293251586803931</v>
+        <v>0.09251550131224011</v>
       </c>
       <c r="T3">
-        <v>0.0529325158680393</v>
+        <v>0.09251550131224011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H4">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N4">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O4">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P4">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q4">
-        <v>24.82515297709334</v>
+        <v>43.98159499330534</v>
       </c>
       <c r="R4">
-        <v>223.42637679384</v>
+        <v>395.8343549397481</v>
       </c>
       <c r="S4">
-        <v>0.03728031496127358</v>
+        <v>0.07261173697355096</v>
       </c>
       <c r="T4">
-        <v>0.03728031496127358</v>
+        <v>0.07261173697355097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H5">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N5">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O5">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P5">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q5">
-        <v>6.408103054026665</v>
+        <v>7.451828182671668</v>
       </c>
       <c r="R5">
-        <v>57.67292748623999</v>
+        <v>67.06645364404501</v>
       </c>
       <c r="S5">
-        <v>0.009623147151554212</v>
+        <v>0.01230265041671662</v>
       </c>
       <c r="T5">
-        <v>0.009623147151554209</v>
+        <v>0.01230265041671662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J6">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N6">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O6">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P6">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q6">
-        <v>123.1428167029995</v>
+        <v>65.08621187278865</v>
       </c>
       <c r="R6">
-        <v>1108.285350326996</v>
+        <v>585.7759068550979</v>
       </c>
       <c r="S6">
-        <v>0.1849254663663999</v>
+        <v>0.1074545590679718</v>
       </c>
       <c r="T6">
-        <v>0.1849254663663998</v>
+        <v>0.1074545590679718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J7">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.288553</v>
       </c>
       <c r="O7">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P7">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q7">
         <v>49.96165005991622</v>
@@ -883,10 +883,10 @@
         <v>449.654850539246</v>
       </c>
       <c r="S7">
-        <v>0.07502818016619095</v>
+        <v>0.08248455276502453</v>
       </c>
       <c r="T7">
-        <v>0.07502818016619091</v>
+        <v>0.08248455276502453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J8">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N8">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O8">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P8">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q8">
-        <v>35.18793731365489</v>
+        <v>39.21291179811466</v>
       </c>
       <c r="R8">
-        <v>316.691435822894</v>
+        <v>352.916206183032</v>
       </c>
       <c r="S8">
-        <v>0.05284226796511771</v>
+        <v>0.06473884446176088</v>
       </c>
       <c r="T8">
-        <v>0.05284226796511769</v>
+        <v>0.06473884446176088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J9">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N9">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O9">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P9">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q9">
-        <v>9.083042862720442</v>
+        <v>6.643867311003333</v>
       </c>
       <c r="R9">
-        <v>81.74738576448398</v>
+        <v>59.79480579902999</v>
       </c>
       <c r="S9">
-        <v>0.01364014550248357</v>
+        <v>0.01096874148714205</v>
       </c>
       <c r="T9">
-        <v>0.01364014550248356</v>
+        <v>0.01096874148714205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H10">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N10">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O10">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P10">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q10">
-        <v>144.8124917383055</v>
+        <v>98.97290505357432</v>
       </c>
       <c r="R10">
-        <v>1303.31242564475</v>
+        <v>890.7561454821689</v>
       </c>
       <c r="S10">
-        <v>0.2174671514537013</v>
+        <v>0.1634000438217914</v>
       </c>
       <c r="T10">
-        <v>0.2174671514537012</v>
+        <v>0.1634000438217914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H11">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.288553</v>
       </c>
       <c r="O11">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P11">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q11">
-        <v>58.75349638934722</v>
+        <v>75.97384308315145</v>
       </c>
       <c r="R11">
-        <v>528.781467504125</v>
+        <v>683.7645877483631</v>
       </c>
       <c r="S11">
-        <v>0.08823103134518422</v>
+        <v>0.1254295737038035</v>
       </c>
       <c r="T11">
-        <v>0.08823103134518417</v>
+        <v>0.1254295737038035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H12">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N12">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O12">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P12">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q12">
-        <v>41.38002538801389</v>
+        <v>59.62884741017734</v>
       </c>
       <c r="R12">
-        <v>372.420228492125</v>
+        <v>536.659626691596</v>
       </c>
       <c r="S12">
-        <v>0.06214102209134819</v>
+        <v>0.09844468316446586</v>
       </c>
       <c r="T12">
-        <v>0.06214102209134817</v>
+        <v>0.09844468316446588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H13">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N13">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O13">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P13">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q13">
-        <v>10.68140314419444</v>
+        <v>10.10295160280167</v>
       </c>
       <c r="R13">
-        <v>96.13262829774999</v>
+        <v>90.92656442521501</v>
       </c>
       <c r="S13">
-        <v>0.01604042777949202</v>
+        <v>0.01667954208006357</v>
       </c>
       <c r="T13">
-        <v>0.01604042777949201</v>
+        <v>0.01667954208006357</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H14">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I14">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J14">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.452892666666667</v>
+        <v>4.467713</v>
       </c>
       <c r="N14">
-        <v>25.358678</v>
+        <v>13.403139</v>
       </c>
       <c r="O14">
-        <v>0.5664982795292011</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="P14">
-        <v>0.566498279529201</v>
+        <v>0.4045017685715556</v>
       </c>
       <c r="Q14">
-        <v>22.401323612962</v>
+        <v>7.949966161975667</v>
       </c>
       <c r="R14">
-        <v>201.611912516658</v>
+        <v>71.549695457781</v>
       </c>
       <c r="S14">
-        <v>0.03364041303637598</v>
+        <v>0.01312505496878581</v>
       </c>
       <c r="T14">
-        <v>0.03364041303637597</v>
+        <v>0.01312505496878581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H15">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I15">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J15">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.288553</v>
       </c>
       <c r="O15">
-        <v>0.2298403557687432</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="P15">
-        <v>0.2298403557687431</v>
+        <v>0.3105047171817127</v>
       </c>
       <c r="Q15">
-        <v>9.088691660587001</v>
+        <v>6.102574046698556</v>
       </c>
       <c r="R15">
-        <v>81.798224945283</v>
+        <v>54.923166420287</v>
       </c>
       <c r="S15">
-        <v>0.0136486283893287</v>
+        <v>0.0100750894006446</v>
       </c>
       <c r="T15">
-        <v>0.0136486283893287</v>
+        <v>0.01007508940064459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H16">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I16">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J16">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.415405666666667</v>
+        <v>2.691692</v>
       </c>
       <c r="N16">
-        <v>7.246217000000001</v>
+        <v>8.075076000000001</v>
       </c>
       <c r="O16">
-        <v>0.1618763195618971</v>
+        <v>0.2437028015116252</v>
       </c>
       <c r="P16">
-        <v>0.161876319561897</v>
+        <v>0.2437028015116253</v>
       </c>
       <c r="Q16">
-        <v>6.401155927243001</v>
+        <v>4.789667626022667</v>
       </c>
       <c r="R16">
-        <v>57.610403345187</v>
+        <v>43.10700863420401</v>
       </c>
       <c r="S16">
-        <v>0.009612714544157595</v>
+        <v>0.007907536911847523</v>
       </c>
       <c r="T16">
-        <v>0.009612714544157594</v>
+        <v>0.007907536911847523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H17">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I17">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J17">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6234873333333333</v>
+        <v>0.456055</v>
       </c>
       <c r="N17">
-        <v>1.870462</v>
+        <v>1.368165</v>
       </c>
       <c r="O17">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="P17">
-        <v>0.04178504514015866</v>
+        <v>0.04129071273510649</v>
       </c>
       <c r="Q17">
-        <v>1.652326851098</v>
+        <v>0.8115162764483335</v>
       </c>
       <c r="R17">
-        <v>14.870941659882</v>
+        <v>7.303646488035</v>
       </c>
       <c r="S17">
-        <v>0.002481324706628866</v>
+        <v>0.001339778751184245</v>
       </c>
       <c r="T17">
-        <v>0.002481324706628865</v>
+        <v>0.001339778751184245</v>
       </c>
     </row>
   </sheetData>
